--- a/data_year/zb/建筑业/建筑业劳动生产率.xlsx
+++ b/data_year/zb/建筑业/建筑业劳动生产率.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,334 +453,206 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73302</v>
+        <v>271857</v>
       </c>
       <c r="C2" t="n">
-        <v>59585</v>
+        <v>203962</v>
       </c>
       <c r="D2" t="n">
-        <v>44142</v>
+        <v>138580</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82899</v>
+        <v>339049.06241047</v>
       </c>
       <c r="C3" t="n">
-        <v>67275</v>
+        <v>233104.04851128</v>
       </c>
       <c r="D3" t="n">
-        <v>47664</v>
+        <v>158153.09473092</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92844</v>
+        <v>388406.19930582</v>
       </c>
       <c r="C4" t="n">
-        <v>76171</v>
+        <v>296424.4266311</v>
       </c>
       <c r="D4" t="n">
-        <v>55670</v>
+        <v>222006.18268226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100409</v>
+        <v>439212.06157677</v>
       </c>
       <c r="C5" t="n">
-        <v>86666</v>
+        <v>324842</v>
       </c>
       <c r="D5" t="n">
-        <v>62670</v>
+        <v>246678.55278622</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>413400.822813702</v>
+      </c>
       <c r="C6" t="n">
-        <v>101938.64541414</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>317632.690140319</v>
+      </c>
+      <c r="D6" t="n">
+        <v>234669.466081221</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154435.59</v>
+        <v>445787.045492573</v>
       </c>
       <c r="C7" t="n">
-        <v>117317.44</v>
+        <v>324025.820697924</v>
       </c>
       <c r="D7" t="n">
-        <v>75922.2</v>
+        <v>245267.944409477</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170373.24</v>
+        <v>466055.998397561</v>
       </c>
       <c r="C8" t="n">
-        <v>131800.29</v>
+        <v>336991.122415869</v>
       </c>
       <c r="D8" t="n">
-        <v>85662.84</v>
+        <v>242965.18293753</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>189149.816711062</v>
+        <v>484733.812004359</v>
       </c>
       <c r="C9" t="n">
-        <v>148100.556180994</v>
+        <v>347962.571843342</v>
       </c>
       <c r="D9" t="n">
-        <v>97716.2202066029</v>
+        <v>256788.0726252</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202553.474488841</v>
+        <v>531442.0699999999</v>
       </c>
       <c r="C10" t="n">
-        <v>161804.731227174</v>
+        <v>373193</v>
       </c>
       <c r="D10" t="n">
-        <v>110989.501587667</v>
+        <v>277452.93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>244192.693116554</v>
+        <v>587122.1128</v>
       </c>
       <c r="C11" t="n">
-        <v>185087.231133373</v>
+        <v>399673.87</v>
       </c>
       <c r="D11" t="n">
-        <v>124254.659248167</v>
+        <v>303656.11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>271857</v>
+        <v>635663.72</v>
       </c>
       <c r="C12" t="n">
-        <v>203962</v>
+        <v>422897.55</v>
       </c>
       <c r="D12" t="n">
-        <v>138580</v>
+        <v>318885.2817</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>339049.06241047</v>
+        <v>645276</v>
       </c>
       <c r="C13" t="n">
-        <v>233104.04851128</v>
+        <v>473170</v>
       </c>
       <c r="D13" t="n">
-        <v>158153.09473092</v>
+        <v>341745</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>388406.19930582</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>296424.4266311</v>
-      </c>
-      <c r="D14" t="n">
-        <v>222006.18268226</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>439212.06157677</v>
-      </c>
-      <c r="C15" t="n">
-        <v>324842</v>
-      </c>
-      <c r="D15" t="n">
-        <v>246678.55278622</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>413400.822813702</v>
-      </c>
-      <c r="C16" t="n">
-        <v>317632.690140319</v>
-      </c>
-      <c r="D16" t="n">
-        <v>234669.466081221</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>445787.045492573</v>
-      </c>
-      <c r="C17" t="n">
-        <v>324025.820697924</v>
-      </c>
-      <c r="D17" t="n">
-        <v>245267.944409477</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>466055.998397561</v>
-      </c>
-      <c r="C18" t="n">
-        <v>336991.122415869</v>
-      </c>
-      <c r="D18" t="n">
-        <v>242965.18293753</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>484733.812004359</v>
-      </c>
-      <c r="C19" t="n">
-        <v>347962.571843342</v>
-      </c>
-      <c r="D19" t="n">
-        <v>256788.0726252</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>531442.0699999999</v>
-      </c>
-      <c r="C20" t="n">
-        <v>373193</v>
-      </c>
-      <c r="D20" t="n">
-        <v>277452.93</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>587122.1128</v>
-      </c>
-      <c r="C21" t="n">
-        <v>399673.87</v>
-      </c>
-      <c r="D21" t="n">
-        <v>303656.11</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>635663.72</v>
-      </c>
-      <c r="C22" t="n">
-        <v>422897.55</v>
-      </c>
-      <c r="D22" t="n">
-        <v>318885.2817</v>
-      </c>
+        <v>493526.01</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
